--- a/inst/extdata/FakeElectionResults.xlsx
+++ b/inst/extdata/FakeElectionResults.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sharon\My Documents Data Drive\R\elections2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F080A1-92D2-44AE-93DD-75577906CDE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0171C3E8-FB3B-40DD-B9F4-EFC5D8A6FEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="1800" windowWidth="20370" windowHeight="13485"/>
+    <workbookView xWindow="11640" yWindow="1875" windowWidth="17160" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FakeElectionResults" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,16 @@
     <t>Precinct</t>
   </si>
   <si>
-    <t>Joe</t>
+    <t>No</t>
   </si>
   <si>
-    <t>Marcy</t>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -868,10 +868,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
